--- a/biology/Zoologie/Bulbul_colombar/Bulbul_colombar.xlsx
+++ b/biology/Zoologie/Bulbul_colombar/Bulbul_colombar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus priocephalus
 Le Bulbul colombar (Pycnonotus priocephalus) est une espèce de passereau de la famille des Pycnonotidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique aux Ghâts occidentaux dans l'ouest de l'Inde, depuis Goa jusqu'au Tamil Nadu.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bulbul est résident dans les forêts humides de feuillus à feuilles persistantes avec des bambous et un sous-bois dense.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son plumage est vert olive, avec une tête gris-moyen, un front jaune-vert, un menton noir et une queue grise. Son bec et son iris sont de couleur jaune pâle. Le dessus du croupion et le bas du dos ont des barres noirâtres. La queue est grise avec des plumes extérieure noires à bout gris. Les deux sexes sont semblables, mais les jeunes ont la tête noire de l'olivier avec le jaune sur le front plus terne. (Longueur 143-152mm; tête 33-35mm; queue 74-77mm).
 Son cri est un chraink aigu.
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit seul ou en petits groupes.
 </t>
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche de février à juin. Le nid est placé dans un buisson bas.
 </t>
@@ -668,7 +690,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit essentiellement de fruits.
 </t>
